--- a/components_required.xlsx
+++ b/components_required.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Electrical Engineer\5th Semester\MPS_Control_CEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Electrical Engineer\5th Semester\MPS-Control_CEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -139,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -163,80 +163,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -249,24 +184,127 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -276,30 +314,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +614,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,298 +623,298 @@
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>5000</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="17">
         <f>C5*D5</f>
         <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>650</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="17">
         <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>350</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="17">
         <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
         <v>450</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="17">
         <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="4">
         <v>170</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="17">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="16">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
         <v>250</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="17">
         <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="16">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
         <v>275</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="17">
         <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="16">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="15">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
         <v>90</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="16">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
         <v>280</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="17">
         <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="16">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="4">
         <v>3</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="4">
         <v>30</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="16">
         <v>12</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
         <v>90</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="16">
         <v>13</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="4">
         <v>30</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="16">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="15">
-        <v>1</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
         <v>60</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="18">
         <f>SUM(E5:E17)</f>
         <v>7955</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
